--- a/data/Контрольная работа № 1 (Общая экология 2021)(1-99).xlsx
+++ b/data/Контрольная работа № 1 (Общая экология 2021)(1-99).xlsx
@@ -672,12 +672,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +702,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -702,37 +716,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,21 +769,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -792,6 +785,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -799,9 +808,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,28 +836,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -846,187 +846,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,23 +1043,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,6 +1099,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1118,174 +1123,170 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1646,7 +1647,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1657,7 +1658,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1668,8 +1669,8 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" s="2">
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1679,8 +1680,8 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>20</v>
+      <c r="B5" s="2">
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1690,7 +1691,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1701,7 +1702,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1712,8 +1713,8 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>22</v>
+      <c r="B8" s="2">
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1723,8 +1724,8 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>20</v>
+      <c r="B9" s="2">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1734,7 +1735,7 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1745,7 +1746,7 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1756,7 +1757,7 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1767,8 +1768,8 @@
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
-        <v>18</v>
+      <c r="B13" s="2">
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -1778,8 +1779,8 @@
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
-        <v>23</v>
+      <c r="B14" s="2">
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1789,8 +1790,8 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>22</v>
+      <c r="B15" s="2">
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
@@ -1800,8 +1801,8 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>21</v>
+      <c r="B16" s="2">
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1811,8 +1812,8 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>21</v>
+      <c r="B17" s="2">
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
@@ -1822,8 +1823,8 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>20</v>
+      <c r="B18" s="2">
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
@@ -1833,7 +1834,7 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1844,8 +1845,8 @@
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
-        <v>22</v>
+      <c r="B20" s="2">
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
@@ -1855,8 +1856,8 @@
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>18</v>
+      <c r="B21" s="2">
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
@@ -1866,8 +1867,8 @@
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>22</v>
+      <c r="B22" s="2">
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1877,8 +1878,8 @@
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" s="2">
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>46</v>
@@ -1888,7 +1889,7 @@
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1899,8 +1900,8 @@
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25">
-        <v>23</v>
+      <c r="B25" s="2">
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
@@ -1910,7 +1911,7 @@
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1921,8 +1922,8 @@
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27">
-        <v>20</v>
+      <c r="B27" s="2">
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>54</v>
@@ -1932,8 +1933,8 @@
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28">
-        <v>21</v>
+      <c r="B28" s="2">
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>56</v>
@@ -1943,7 +1944,7 @@
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1954,7 +1955,7 @@
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1965,7 +1966,7 @@
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1976,8 +1977,8 @@
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32">
-        <v>22</v>
+      <c r="B32" s="2">
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>64</v>
@@ -1987,7 +1988,7 @@
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1998,7 +1999,7 @@
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2009,8 +2010,8 @@
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B35">
-        <v>21</v>
+      <c r="B35" s="2">
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>70</v>
@@ -2020,8 +2021,8 @@
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36">
-        <v>23</v>
+      <c r="B36" s="2">
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>72</v>
@@ -2031,8 +2032,8 @@
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37">
-        <v>21</v>
+      <c r="B37" s="2">
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>74</v>
@@ -2042,8 +2043,8 @@
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38">
-        <v>21</v>
+      <c r="B38" s="2">
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>76</v>
@@ -2053,8 +2054,8 @@
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39">
-        <v>23</v>
+      <c r="B39" s="2">
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>78</v>
@@ -2064,8 +2065,8 @@
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40">
-        <v>9</v>
+      <c r="B40" s="2">
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>80</v>
@@ -2075,8 +2076,8 @@
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41">
-        <v>20</v>
+      <c r="B41" s="2">
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>82</v>
@@ -2086,8 +2087,8 @@
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42">
-        <v>17</v>
+      <c r="B42" s="2">
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>84</v>
@@ -2097,8 +2098,8 @@
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43">
-        <v>11</v>
+      <c r="B43" s="2">
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>86</v>
@@ -2108,7 +2109,7 @@
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2119,7 +2120,7 @@
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2130,8 +2131,8 @@
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46">
-        <v>15</v>
+      <c r="B46" s="2">
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>92</v>
@@ -2141,8 +2142,8 @@
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47">
-        <v>23</v>
+      <c r="B47" s="2">
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>94</v>
@@ -2152,8 +2153,8 @@
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48">
-        <v>21</v>
+      <c r="B48" s="2">
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>96</v>
@@ -2163,8 +2164,8 @@
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49">
-        <v>22</v>
+      <c r="B49" s="2">
+        <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>98</v>
@@ -2174,8 +2175,8 @@
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50">
-        <v>23</v>
+      <c r="B50" s="2">
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>100</v>
@@ -2185,7 +2186,7 @@
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2196,7 +2197,7 @@
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2207,8 +2208,8 @@
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B53">
-        <v>14</v>
+      <c r="B53" s="2">
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>106</v>
@@ -2218,8 +2219,8 @@
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B54">
-        <v>14</v>
+      <c r="B54" s="2">
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>108</v>
@@ -2229,8 +2230,8 @@
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B55">
-        <v>14</v>
+      <c r="B55" s="2">
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>110</v>
@@ -2240,8 +2241,8 @@
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B56">
-        <v>22</v>
+      <c r="B56" s="2">
+        <v>23</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>112</v>
@@ -2251,7 +2252,7 @@
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2262,8 +2263,8 @@
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B58">
-        <v>21</v>
+      <c r="B58" s="2">
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>116</v>
@@ -2273,7 +2274,7 @@
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2284,7 +2285,7 @@
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2295,8 +2296,8 @@
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61">
-        <v>20</v>
+      <c r="B61" s="2">
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>122</v>
@@ -2306,8 +2307,8 @@
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62">
-        <v>22</v>
+      <c r="B62" s="2">
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>124</v>
@@ -2317,8 +2318,8 @@
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63">
-        <v>16</v>
+      <c r="B63" s="2">
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>126</v>
@@ -2328,8 +2329,8 @@
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B64">
-        <v>14</v>
+      <c r="B64" s="2">
+        <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>128</v>
@@ -2339,8 +2340,8 @@
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B65">
-        <v>14</v>
+      <c r="B65" s="2">
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>130</v>
@@ -2350,8 +2351,8 @@
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B66">
-        <v>14</v>
+      <c r="B66" s="2">
+        <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>132</v>
@@ -2361,7 +2362,7 @@
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2372,7 +2373,7 @@
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2383,8 +2384,8 @@
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B69">
-        <v>23</v>
+      <c r="B69" s="2">
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>138</v>
@@ -2394,8 +2395,8 @@
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B70">
-        <v>20</v>
+      <c r="B70" s="2">
+        <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>140</v>
@@ -2405,7 +2406,7 @@
       <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2416,8 +2417,8 @@
       <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B72">
-        <v>13</v>
+      <c r="B72" s="2">
+        <v>14</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>144</v>
@@ -2427,8 +2428,8 @@
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B73">
-        <v>19</v>
+      <c r="B73" s="2">
+        <v>20</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>146</v>
@@ -2438,8 +2439,8 @@
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B74">
-        <v>20</v>
+      <c r="B74" s="2">
+        <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>148</v>
@@ -2449,8 +2450,8 @@
       <c r="A75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B75">
-        <v>22</v>
+      <c r="B75" s="2">
+        <v>23</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>150</v>
@@ -2460,8 +2461,8 @@
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B76">
-        <v>23</v>
+      <c r="B76" s="2">
+        <v>24</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>152</v>
@@ -2471,8 +2472,8 @@
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B77">
-        <v>19</v>
+      <c r="B77" s="2">
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>154</v>
@@ -2482,8 +2483,8 @@
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B78">
-        <v>19</v>
+      <c r="B78" s="2">
+        <v>20</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>156</v>
@@ -2493,8 +2494,8 @@
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B79">
-        <v>20</v>
+      <c r="B79" s="2">
+        <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>158</v>
@@ -2504,8 +2505,8 @@
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B80">
-        <v>20</v>
+      <c r="B80" s="2">
+        <v>21</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>160</v>
@@ -2515,8 +2516,8 @@
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B81">
-        <v>23</v>
+      <c r="B81" s="2">
+        <v>24</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>162</v>
@@ -2526,8 +2527,8 @@
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B82">
-        <v>23</v>
+      <c r="B82" s="2">
+        <v>24</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>164</v>
@@ -2537,8 +2538,8 @@
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B83">
-        <v>21</v>
+      <c r="B83" s="2">
+        <v>22</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>166</v>
@@ -2548,8 +2549,8 @@
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B84">
-        <v>20</v>
+      <c r="B84" s="2">
+        <v>21</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>168</v>
@@ -2559,8 +2560,8 @@
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B85">
-        <v>22</v>
+      <c r="B85" s="2">
+        <v>23</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>170</v>
@@ -2570,8 +2571,8 @@
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B86">
-        <v>14</v>
+      <c r="B86" s="2">
+        <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>172</v>
@@ -2581,8 +2582,8 @@
       <c r="A87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B87">
-        <v>17</v>
+      <c r="B87" s="2">
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>174</v>
@@ -2592,8 +2593,8 @@
       <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B88">
-        <v>14</v>
+      <c r="B88" s="2">
+        <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>176</v>
@@ -2603,8 +2604,8 @@
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B89">
-        <v>20</v>
+      <c r="B89" s="2">
+        <v>21</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>178</v>
@@ -2614,8 +2615,8 @@
       <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B90">
-        <v>14</v>
+      <c r="B90" s="2">
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>180</v>
@@ -2625,8 +2626,8 @@
       <c r="A91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B91">
-        <v>20</v>
+      <c r="B91" s="2">
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>182</v>
@@ -2636,8 +2637,8 @@
       <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B92">
-        <v>15</v>
+      <c r="B92" s="2">
+        <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>184</v>
@@ -2647,8 +2648,8 @@
       <c r="A93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B93">
-        <v>18</v>
+      <c r="B93" s="2">
+        <v>19</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>186</v>
@@ -2658,8 +2659,8 @@
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B94">
-        <v>17</v>
+      <c r="B94" s="2">
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>188</v>
@@ -2669,8 +2670,8 @@
       <c r="A95" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B95">
-        <v>23</v>
+      <c r="B95" s="2">
+        <v>24</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>190</v>
@@ -2680,8 +2681,8 @@
       <c r="A96" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B96">
-        <v>12</v>
+      <c r="B96" s="2">
+        <v>13</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>192</v>
@@ -2691,8 +2692,8 @@
       <c r="A97" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B97">
-        <v>16</v>
+      <c r="B97" s="2">
+        <v>17</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>194</v>
@@ -2702,8 +2703,8 @@
       <c r="A98" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B98">
-        <v>10</v>
+      <c r="B98" s="2">
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>196</v>
@@ -2713,8 +2714,8 @@
       <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B99">
-        <v>10</v>
+      <c r="B99" s="2">
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>198</v>
@@ -2724,7 +2725,7 @@
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2735,8 +2736,8 @@
       <c r="A101" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="1">
-        <v>23</v>
+      <c r="B101" s="2">
+        <v>24</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>202</v>
@@ -2746,8 +2747,8 @@
       <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="1">
-        <v>21</v>
+      <c r="B102" s="2">
+        <v>22</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>204</v>
@@ -2757,8 +2758,8 @@
       <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="1">
-        <v>8</v>
+      <c r="B103" s="2">
+        <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>206</v>
@@ -2768,7 +2769,7 @@
       <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2779,8 +2780,8 @@
       <c r="A105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="1">
-        <v>11</v>
+      <c r="B105" s="2">
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>210</v>
@@ -2790,8 +2791,8 @@
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B106" s="1">
-        <v>6</v>
+      <c r="B106" s="2">
+        <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>212</v>
@@ -2801,7 +2802,7 @@
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -2812,7 +2813,7 @@
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">

--- a/data/Контрольная работа № 1 (Общая экология 2021)(1-99).xlsx
+++ b/data/Контрольная работа № 1 (Общая экология 2021)(1-99).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9407"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
     <t>Фарида Кадирова</t>
   </si>
   <si>
-    <t>st061423@ad.pu.ru</t>
+    <t>st061423@student.spbu.ru</t>
   </si>
   <si>
     <t>Диана Буданова</t>
@@ -672,10 +672,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -686,19 +686,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9.75"/>
+      <color rgb="FF5C6993"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -715,24 +706,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,22 +716,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -778,6 +738,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -787,22 +787,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +801,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,9 +829,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,187 +845,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,22 +1039,65 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,24 +1119,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,45 +1131,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,144 +1148,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="2">

--- a/data/Контрольная работа № 1 (Общая экология 2021)(1-99).xlsx
+++ b/data/Контрольная работа № 1 (Общая экология 2021)(1-99).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Mail</t>
   </si>
@@ -665,6 +665,18 @@
   </si>
   <si>
     <t>Марина Гавриленко</t>
+  </si>
+  <si>
+    <t>st071537@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Степан Озеров</t>
+  </si>
+  <si>
+    <t>st068449@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Карина Юрьева</t>
   </si>
 </sst>
 </file>
@@ -673,11 +685,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,20 +707,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,13 +733,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -738,18 +742,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,17 +764,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,15 +801,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,8 +825,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,6 +840,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -836,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,43 +864,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,121 +1026,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,20 +1054,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1039,32 +1064,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,17 +1078,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,6 +1095,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,18 +1134,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,136 +1193,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,8 +1393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B108" totalsRowShown="0">
-  <autoFilter ref="A1:B108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B110" totalsRowShown="0">
+  <autoFilter ref="A1:B110"/>
   <tableColumns count="2">
     <tableColumn id="4" name="Mail" dataDxfId="0"/>
     <tableColumn id="6" name="Sum" dataDxfId="1"/>
@@ -1621,10 +1661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2820,6 +2860,28 @@
         <v>216</v>
       </c>
     </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="5">
+        <v>20</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="5">
+        <v>22</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
